--- a/output/TotGoedningabDyr.xlsx
+++ b/output/TotGoedningabDyr.xlsx
@@ -1,91 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_DFC6B03BDDD92EC6C0A73EBF073E1B93925901CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33A4955-09DF-4699-9E2C-33AA2021E2EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t xml:space="preserve">model_gruppe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoednabDyr_tons_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toklimastald_smågrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_smågrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_33_67_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_50_75_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_25_50_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">løs_individuel_søer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farestald_delvis_spalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farestald_fuldspalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_dybstrøelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_fastgødning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_ajle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_ude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_ringkanal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_fast_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_spalter_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_hæld_fast_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_andre_hyppig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_dybstrøelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_fastgødning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_ajle</t>
+    <t>model_gruppe</t>
+  </si>
+  <si>
+    <t>TotGoednabDyr_tons_year</t>
+  </si>
+  <si>
+    <t>toklimastald_smågrise</t>
+  </si>
+  <si>
+    <t>spalter_smågrise</t>
+  </si>
+  <si>
+    <t>spalter_33_67_slagtesvin</t>
+  </si>
+  <si>
+    <t>spalter_50_75_slagtesvin</t>
+  </si>
+  <si>
+    <t>spalter_25_50_slagtesvin</t>
+  </si>
+  <si>
+    <t>løs_individuel_søer</t>
+  </si>
+  <si>
+    <t>farestald_delvis_spalte</t>
+  </si>
+  <si>
+    <t>farestald_fuldspalte</t>
+  </si>
+  <si>
+    <t>svin_dybstrøelse</t>
+  </si>
+  <si>
+    <t>svin_fastgødning</t>
+  </si>
+  <si>
+    <t>svin_ajle</t>
+  </si>
+  <si>
+    <t>svin_ude</t>
+  </si>
+  <si>
+    <t>kvæg_ringkanal</t>
+  </si>
+  <si>
+    <t>kvæg_fast_skrab</t>
+  </si>
+  <si>
+    <t>kvæg_spalter_skrab</t>
+  </si>
+  <si>
+    <t>kvæg_hæld_fast_skrab</t>
+  </si>
+  <si>
+    <t>kvæg_andre_hyppig</t>
+  </si>
+  <si>
+    <t>kvæg_dybstrøelse</t>
+  </si>
+  <si>
+    <t>kvæg_fastgødning</t>
+  </si>
+  <si>
+    <t>kvæg_ajle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,6 +141,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,14 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,168 +451,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>2192954.8077</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>2192954.8076999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>484597.00647</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>484597.00647000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>5016860.8875</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>5016860.8875000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1087323.68025</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
-        <v>3884021.332</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>3884021.3319999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2883817.92611684</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
-        <v>1050801.68611139</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>1050801.6861113899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
-        <v>197181.314988615</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>197181.31498861499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
-        <v>2694536.39559125</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>2694536.3955912502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
-        <v>49317.8450071461</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>49317.845007146097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
-        <v>36946.2816997442</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>36946.281699744199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
-        <v>38594.3919579646</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>38594.391957964603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
-        <v>7494973.16079</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14">
+        <v>7494973.1607900001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
-        <v>2880030.59535</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15">
+        <v>2880030.5953500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
-        <v>3692665.2954</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>3692665.2954000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1003909.01145</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
-        <v>299562.04248</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>796031.53393999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
-        <v>5023199.8288</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>5023199.8288000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
-        <v>281023.54914</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20">
+        <v>281023.54914000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>98527.83352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/TotGoedningabDyr.xlsx
+++ b/output/TotGoedningabDyr.xlsx
@@ -1,111 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_DFC6B03BDDD92EC6C0A73EBF073E1B93925901CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33A4955-09DF-4699-9E2C-33AA2021E2EE}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>model_gruppe</t>
-  </si>
-  <si>
-    <t>TotGoednabDyr_tons_year</t>
-  </si>
-  <si>
-    <t>toklimastald_smågrise</t>
-  </si>
-  <si>
-    <t>spalter_smågrise</t>
-  </si>
-  <si>
-    <t>spalter_33_67_slagtesvin</t>
-  </si>
-  <si>
-    <t>spalter_50_75_slagtesvin</t>
-  </si>
-  <si>
-    <t>spalter_25_50_slagtesvin</t>
-  </si>
-  <si>
-    <t>løs_individuel_søer</t>
-  </si>
-  <si>
-    <t>farestald_delvis_spalte</t>
-  </si>
-  <si>
-    <t>farestald_fuldspalte</t>
-  </si>
-  <si>
-    <t>svin_dybstrøelse</t>
-  </si>
-  <si>
-    <t>svin_fastgødning</t>
-  </si>
-  <si>
-    <t>svin_ajle</t>
-  </si>
-  <si>
-    <t>svin_ude</t>
-  </si>
-  <si>
-    <t>kvæg_ringkanal</t>
-  </si>
-  <si>
-    <t>kvæg_fast_skrab</t>
-  </si>
-  <si>
-    <t>kvæg_spalter_skrab</t>
-  </si>
-  <si>
-    <t>kvæg_hæld_fast_skrab</t>
-  </si>
-  <si>
-    <t>kvæg_andre_hyppig</t>
-  </si>
-  <si>
-    <t>kvæg_dybstrøelse</t>
-  </si>
-  <si>
-    <t>kvæg_fastgødning</t>
-  </si>
-  <si>
-    <t>kvæg_ajle</t>
+    <t xml:space="preserve">model_gruppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotGoednabDyr_kt_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toklimastald_smågrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spalter_smågrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spalter_33_67_slagtesvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spalter_50_75_slagtesvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spalter_25_50_slagtesvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">løs_individuel_søer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farestald_delvis_spalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farestald_fuldspalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_dybstrøelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_fastgødning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_ajle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_ude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_ringkanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_fast_skrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_spalter_skrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_hæld_fast_skrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_andre_hyppig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_dybstrøelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_fastgødning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_ajle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,15 +121,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,19 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,168 +417,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2192954.8076999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="n">
+        <v>2192.9548077</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>484597.00647000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="n">
+        <v>484.59700647</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>5016860.8875000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>5016.8608875</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1087323.68025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>1087.32368025</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3884021.3319999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>3884.021332</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2883817.92611684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>2883.81792611684</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1050801.6861113899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>1050.80168611139</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>197181.31498861499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>197.181314988615</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>2694536.3955912502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>2694.53639559125</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>49317.845007146097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>49.3178450071461</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>36946.281699744199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>36.9462816997442</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>38594.391957964603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>38.5943919579646</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>7494973.1607900001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>7494.97316079</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>2880030.5953500001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>2880.03059535</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>3692665.2954000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>3692.6652954</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1003909.01145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>1003.90901145</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>796031.53393999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>796.03153394</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>5023199.8288000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="n">
+        <v>5023.1998288</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>281023.54914000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="n">
+        <v>281.02354914</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>98527.83352</v>
+      <c r="B21" t="n">
+        <v>98.52783352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/TotGoedningabDyr.xlsx
+++ b/output/TotGoedningabDyr.xlsx
@@ -12,18 +12,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">model_gruppe</t>
   </si>
   <si>
+    <t xml:space="preserve">DyreType</t>
+  </si>
+  <si>
     <t xml:space="preserve">TotGoednabDyr_kt_year</t>
   </si>
   <si>
+    <t xml:space="preserve">Dyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotGoednabDyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udbredelse_pr_dyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udbredelse_pr_dyretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lager_faktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotGoednabLager_kt_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farestald_delvis_spalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">søer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farestald_fuldspalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">løs_individuel_søer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_ajle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_dybstrøelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_fastgødning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin_ude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spalter_smågrise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smågrise</t>
+  </si>
+  <si>
     <t xml:space="preserve">toklimastald_smågrise</t>
   </si>
   <si>
-    <t xml:space="preserve">spalter_smågrise</t>
+    <t xml:space="preserve">spalter_25_50_slagtesvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slagtesvin</t>
   </si>
   <si>
     <t xml:space="preserve">spalter_33_67_slagtesvin</t>
@@ -32,52 +89,31 @@
     <t xml:space="preserve">spalter_50_75_slagtesvin</t>
   </si>
   <si>
-    <t xml:space="preserve">spalter_25_50_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">løs_individuel_søer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farestald_delvis_spalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farestald_fuldspalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_dybstrøelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_fastgødning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_ajle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_ude</t>
+    <t xml:space="preserve">kvæg_ajle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_andre_hyppig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_dybstrøelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_fast_skrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_fastgødning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg_hæld_fast_skrab</t>
   </si>
   <si>
     <t xml:space="preserve">kvæg_ringkanal</t>
   </si>
   <si>
-    <t xml:space="preserve">kvæg_fast_skrab</t>
-  </si>
-  <si>
     <t xml:space="preserve">kvæg_spalter_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_hæld_fast_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_andre_hyppig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_dybstrøelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_fastgødning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_ajle</t>
   </si>
 </sst>
 </file>
@@ -416,165 +452,562 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2192.9548077</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1050.80168611139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4175.30394897004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.01016247551932</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.1670704445505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.45454545454545</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1528.43881616202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>484.59700647</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>197.181314988615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4175.30394897004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.12779771471789</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.7225619355749</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.45454545454545</v>
+      </c>
+      <c r="I3" t="n">
+        <v>286.809185437985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5016.8608875</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2883.81792611684</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4175.30394897004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.4942771931754</v>
+      </c>
+      <c r="G4" t="n">
+        <v>69.0684549283703</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.45390070921986</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4192.78492804221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1087.32368025</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36.9462816997442</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>0.211317852661144</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3884.021332</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>598.277529558088</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>3.42190653633502</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2883.81792611684</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.3715633074019</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>0.0707603599579458</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1050.80168611139</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.5943919579646</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>0.220744379626599</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>197.181314988615</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>484.59700647</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3079.05709147</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.77169972462934</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.7384872080642</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.44444444444444</v>
+      </c>
+      <c r="I9" t="n">
+        <v>699.97345379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2694.53639559125</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2192.9548077</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3079.05709147</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.5428183737717</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71.2216351484747</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.44444444444444</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3167.6013889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
-        <v>49.3178450071461</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3884.021332</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10229.38736722</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.2150378822559</v>
+      </c>
+      <c r="G11" t="n">
+        <v>37.9692467649267</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4194.74303856</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="n">
-        <v>36.9462816997442</v>
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5016.8608875</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10229.38736722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28.6944239331538</v>
+      </c>
+      <c r="G12" t="n">
+        <v>49.0436104079556</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5518.54697625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n">
-        <v>38.5943919579646</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1087.32368025</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10229.38736722</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.2190535741959</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.6294115299057</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1174.30957467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7494.97316079</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>98.52783352</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.499752785514611</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.499752785514611</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2880.03059535</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="n">
+        <v>796.03153394</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.03763040586121</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.03763040586121</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.17854597291518</v>
+      </c>
+      <c r="I15" t="n">
+        <v>938.159758638482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3692.6652954</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3566.6813806</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.0909179804114</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18.0909179804114</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1003.90901145</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2880.03059535</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.608088506293</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.608088506293</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.18246614397719</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3405.53867261985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="n">
-        <v>796.03153394</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>182.49571562</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.925654598982572</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.925654598982572</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5023.1998288</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1003.90901145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.09202635388828</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.09202635388828</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.18246614397719</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1187.08841767324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="n">
-        <v>281.02354914</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7494.97316079</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>38.0159958931983</v>
+      </c>
+      <c r="G20" t="n">
+        <v>38.0159958931983</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.18246614397719</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8862.5520126519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="n">
-        <v>98.52783352</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3692.6652954</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19715.31452667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18.7299334758506</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18.7299334758506</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.18246614397719</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4366.45169285004</v>
       </c>
     </row>
   </sheetData>

--- a/output/TotGoedningabDyr.xlsx
+++ b/output/TotGoedningabDyr.xlsx
@@ -1,127 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C026F22F0049E6EE0C2636FA5F3D011D4A9DC365" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10777EFA-DB57-4737-97A1-9DC7D47C3B15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="4770" yWindow="1095" windowWidth="16605" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">model_gruppe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DyreType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoednabDyr_kt_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoednabDyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">udbredelse_pr_dyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">udbredelse_pr_dyretype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lager_faktor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoednabLager_kt_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farestald_delvis_spalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">søer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farestald_fuldspalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">løs_individuel_søer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_ajle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_dybstrøelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_fastgødning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin_ude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_smågrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smågrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toklimastald_smågrise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_25_50_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_33_67_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spalter_50_75_slagtesvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_ajle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_andre_hyppig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_dybstrøelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_fast_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_fastgødning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_hæld_fast_skrab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_ringkanal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg_spalter_skrab</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+  <si>
+    <t>model_gruppe</t>
+  </si>
+  <si>
+    <t>DyreType</t>
+  </si>
+  <si>
+    <t>TotGoednabDyr_kt_year</t>
+  </si>
+  <si>
+    <t>Dyr</t>
+  </si>
+  <si>
+    <t>TotGoednabDyr</t>
+  </si>
+  <si>
+    <t>udbredelse_pr_dyr</t>
+  </si>
+  <si>
+    <t>udbredelse_pr_dyretype</t>
+  </si>
+  <si>
+    <t>lager_faktor</t>
+  </si>
+  <si>
+    <t>TotGoednabLager_kt_year</t>
+  </si>
+  <si>
+    <t>farestald_delvis_spalte</t>
+  </si>
+  <si>
+    <t>søer</t>
+  </si>
+  <si>
+    <t>svin</t>
+  </si>
+  <si>
+    <t>farestald_fuldspalte</t>
+  </si>
+  <si>
+    <t>løs_individuel_søer</t>
+  </si>
+  <si>
+    <t>svin_ajle</t>
+  </si>
+  <si>
+    <t>svin_dybstrøelse</t>
+  </si>
+  <si>
+    <t>svin_fastgødning</t>
+  </si>
+  <si>
+    <t>svin_ude</t>
+  </si>
+  <si>
+    <t>spalter_smågrise</t>
+  </si>
+  <si>
+    <t>smågrise</t>
+  </si>
+  <si>
+    <t>toklimastald_smågrise</t>
+  </si>
+  <si>
+    <t>spalter_25_50_slagtesvin</t>
+  </si>
+  <si>
+    <t>slagtesvin</t>
+  </si>
+  <si>
+    <t>spalter_33_67_slagtesvin</t>
+  </si>
+  <si>
+    <t>spalter_50_75_slagtesvin</t>
+  </si>
+  <si>
+    <t>kvæg_ajle</t>
+  </si>
+  <si>
+    <t>kvæg</t>
+  </si>
+  <si>
+    <t>kvæg_andre_hyppig</t>
+  </si>
+  <si>
+    <t>kvæg_dybstrøelse</t>
+  </si>
+  <si>
+    <t>kvæg_fast_skrab</t>
+  </si>
+  <si>
+    <t>kvæg_fastgødning</t>
+  </si>
+  <si>
+    <t>kvæg_hæld_fast_skrab</t>
+  </si>
+  <si>
+    <t>kvæg_ringkanal</t>
+  </si>
+  <si>
+    <t>kvæg_spalter_skrab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +177,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,14 +467,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,544 +508,522 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>1050.80168611139</v>
+      <c r="C2">
+        <v>1050.8016861113899</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
-        <v>4175.30394897004</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.01016247551932</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>4175.3039489700404</v>
+      </c>
+      <c r="F2">
+        <v>6.0101624755193201</v>
+      </c>
+      <c r="G2">
         <v>25.1670704445505</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.45454545454545</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="I2">
         <v>1528.43881616202</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>197.181314988615</v>
+      <c r="C3">
+        <v>197.18131498861499</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
-        <v>4175.30394897004</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.12779771471789</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3">
+        <v>4175.3039489700404</v>
+      </c>
+      <c r="F3">
+        <v>1.1277977147178899</v>
+      </c>
+      <c r="G3">
         <v>4.7225619355749</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.45454545454545</v>
-      </c>
-      <c r="I3" t="n">
-        <v>286.809185437985</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="H3">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="I3">
+        <v>286.80918543798498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>2883.81792611684</v>
+      <c r="C4">
+        <v>2883.8179261168402</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="n">
-        <v>4175.30394897004</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>4175.3039489700404</v>
+      </c>
+      <c r="F4">
         <v>16.4942771931754</v>
       </c>
-      <c r="G4" t="n">
-        <v>69.0684549283703</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.45390070921986</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4192.78492804221</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="G4">
+        <v>69.068454928370301</v>
+      </c>
+      <c r="H4">
+        <v>1.4539007092198599</v>
+      </c>
+      <c r="I4">
+        <v>4192.7849280422097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>36.9462816997442</v>
+      <c r="C5">
+        <v>36.946281699744198</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.211317852661144</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>598.277529558088</v>
+      <c r="C6">
+        <v>598.27752955808796</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" t="n">
-        <v>3.42190653633502</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <v>3.4219065363350198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>12.3715633074019</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>0.0707603599579458</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <v>7.0760359957945801E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
-        <v>38.5943919579646</v>
+      <c r="C8">
+        <v>38.594391957964604</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8"/>
-      <c r="F8" t="n">
-        <v>0.220744379626599</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9">
+      <c r="F8">
+        <v>0.22074437962659901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>484.59700647</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
-        <v>3079.05709147</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>3079.0570914700002</v>
+      </c>
+      <c r="F9">
         <v>2.77169972462934</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>15.7384872080642</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1.44444444444444</v>
       </c>
-      <c r="I9" t="n">
-        <v>699.97345379</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="I9">
+        <v>699.97345379000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="n">
-        <v>2192.9548077</v>
+      <c r="C10">
+        <v>2192.9548076999999</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
-        <v>3079.05709147</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>3079.0570914700002</v>
+      </c>
+      <c r="F10">
         <v>12.5428183737717</v>
       </c>
-      <c r="G10" t="n">
-        <v>71.2216351484747</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>71.221635148474704</v>
+      </c>
+      <c r="H10">
         <v>1.44444444444444</v>
       </c>
-      <c r="I10" t="n">
-        <v>3167.6013889</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="I10">
+        <v>3167.6013889000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
-        <v>3884.021332</v>
+      <c r="C11">
+        <v>3884.0213319999998</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
-        <v>10229.38736722</v>
-      </c>
-      <c r="F11" t="n">
-        <v>22.2150378822559</v>
-      </c>
-      <c r="G11" t="n">
-        <v>37.9692467649267</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="E11">
+        <v>10229.387367220001</v>
+      </c>
+      <c r="F11">
+        <v>22.215037882255899</v>
+      </c>
+      <c r="G11">
+        <v>37.969246764926702</v>
+      </c>
+      <c r="H11">
         <v>1.08</v>
       </c>
-      <c r="I11" t="n">
-        <v>4194.74303856</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="I11">
+        <v>4194.7430385600001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5016.8608875</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
-        <v>10229.38736722</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>10229.387367220001</v>
+      </c>
+      <c r="F12">
         <v>28.6944239331538</v>
       </c>
-      <c r="G12" t="n">
-        <v>49.0436104079556</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5518.54697625</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="G12">
+        <v>49.043610407955597</v>
+      </c>
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>5518.5469762499997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="n">
-        <v>1087.32368025</v>
+      <c r="C13">
+        <v>1087.3236802500001</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
-        <v>10229.38736722</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.2190535741959</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10.6294115299057</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="E13">
+        <v>10229.387367220001</v>
+      </c>
+      <c r="F13">
+        <v>6.2190535741959003</v>
+      </c>
+      <c r="G13">
+        <v>10.629411529905701</v>
+      </c>
+      <c r="H13">
         <v>1.08</v>
       </c>
-      <c r="I13" t="n">
-        <v>1174.30957467</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="I13">
+        <v>1174.3095746700001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="n">
-        <v>98.52783352</v>
+      <c r="C14">
+        <v>98.527833520000001</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F14">
         <v>0.499752785514611</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.499752785514611</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="n">
-        <v>796.03153394</v>
+      <c r="C15">
+        <v>796.03153394000003</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.03763040586121</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.03763040586121</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.17854597291518</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="E15">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F15">
+        <v>4.0376304058612096</v>
+      </c>
+      <c r="G15">
+        <v>4.0376304058612096</v>
+      </c>
+      <c r="H15">
+        <v>1.1785459729151799</v>
+      </c>
+      <c r="I15">
         <v>938.159758638482</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3566.6813806</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18.0909179804114</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18.0909179804114</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F16">
+        <v>18.090917980411401</v>
+      </c>
+      <c r="G16">
+        <v>18.090917980411401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="n">
-        <v>2880.03059535</v>
+      <c r="C17">
+        <v>2880.0305953500001</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14.608088506293</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14.608088506293</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="E17">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F17">
+        <v>14.608088506293001</v>
+      </c>
+      <c r="G17">
+        <v>14.608088506293001</v>
+      </c>
+      <c r="H17">
         <v>1.18246614397719</v>
       </c>
-      <c r="I17" t="n">
-        <v>3405.53867261985</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="I17">
+        <v>3405.5386726198499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>182.49571562</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.925654598982572</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.925654598982572</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19">
+      <c r="E18">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F18">
+        <v>0.92565459898257196</v>
+      </c>
+      <c r="G18">
+        <v>0.92565459898257196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1003.90901145</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.09202635388828</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.09202635388828</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="E19">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F19">
+        <v>5.0920263538882802</v>
+      </c>
+      <c r="G19">
+        <v>5.0920263538882802</v>
+      </c>
+      <c r="H19">
         <v>1.18246614397719</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>1187.08841767324</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="n">
-        <v>7494.97316079</v>
+      <c r="C20">
+        <v>7494.9731607900003</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>38.0159958931983</v>
-      </c>
-      <c r="G20" t="n">
-        <v>38.0159958931983</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="E20">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F20">
+        <v>38.015995893198301</v>
+      </c>
+      <c r="G20">
+        <v>38.015995893198301</v>
+      </c>
+      <c r="H20">
         <v>1.18246614397719</v>
       </c>
-      <c r="I20" t="n">
-        <v>8862.5520126519</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="I20">
+        <v>8862.5520126519004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="n">
-        <v>3692.6652954</v>
+      <c r="C21">
+        <v>3692.6652954000001</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="n">
-        <v>19715.31452667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>18.7299334758506</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18.7299334758506</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="E21">
+        <v>19715.314526670001</v>
+      </c>
+      <c r="F21">
+        <v>18.729933475850601</v>
+      </c>
+      <c r="G21">
+        <v>18.729933475850601</v>
+      </c>
+      <c r="H21">
         <v>1.18246614397719</v>
       </c>
-      <c r="I21" t="n">
-        <v>4366.45169285004</v>
+      <c r="I21">
+        <v>4366.4516928500398</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/TotGoedningabDyr.xlsx
+++ b/output/TotGoedningabDyr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AEBAF02B0009ECB814E73DFA5F3D01D1425E91CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9169C3BC-CF36-4B34-826C-709AD2067084}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_AEBAF02B0009ECB814E73DFA5F3D01D1425E91CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31730CD0-09E9-4374-84AF-FC76B78D8C53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,8 +1115,8 @@
         <v>772.68769749229489</v>
       </c>
       <c r="D24">
-        <f>0.07*D2</f>
-        <v>1128.1046223774763</v>
+        <f>D2-SUM(C2,C10,C11,C12,C13,C4*0.6)</f>
+        <v>1153.5271704467359</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
